--- a/Templates/StudentReport.xlsx
+++ b/Templates/StudentReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Отчет по студенту</t>
   </si>
@@ -27,27 +27,15 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Корневич Максим Александрович</t>
-  </si>
-  <si>
     <t>Группа</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>mkornevich@gmail.com</t>
-  </si>
-  <si>
-    <t>Группа А36</t>
-  </si>
-  <si>
     <t>Предметы</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Кол-во часов:</t>
   </si>
   <si>
@@ -61,6 +49,9 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>Предмет</t>
   </si>
 </sst>
 </file>
@@ -462,10 +453,14 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -493,13 +488,11 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9">
-        <v>44503.5</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -512,9 +505,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -523,13 +514,11 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -538,13 +527,11 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -553,7 +540,7 @@
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -566,12 +553,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -584,15 +571,15 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -629,10 +616,7 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D6:I6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Templates/StudentReport.xlsx
+++ b/Templates/StudentReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B813B173-9D76-483B-A848-551098C89036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Отчет по студенту</t>
   </si>
@@ -53,11 +54,14 @@
   <si>
     <t>Предмет</t>
   </si>
+  <si>
+    <t>Вождение</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,8 +144,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -155,19 +165,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -185,6 +192,1833 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$9:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во часов:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Запланировано</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$11:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вождение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$11:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AFF-4771-ABB5-A044E6A640A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$9:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во часов:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Пройдено</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$11:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вождение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$11:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9AFF-4771-ABB5-A044E6A640A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$9:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во часов:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Осталось</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$11:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вождение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$11:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9AFF-4771-ABB5-A044E6A640A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1863155183"/>
+        <c:axId val="1863155599"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$9:$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Предмет</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$11:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вождение</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$11:$B$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9AFF-4771-ABB5-A044E6A640A7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$9:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Предмет</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$11:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вождение</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$11:$C$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9AFF-4771-ABB5-A044E6A640A7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$9:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Кол-во часов:</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Запланировано</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$11:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вождение</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$E$11:$E$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-9AFF-4771-ABB5-A044E6A640A7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$G$9:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Кол-во часов:</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Пройдено</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$11:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вождение</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$G$11:$G$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9AFF-4771-ABB5-A044E6A640A7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$I$9:$I$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Кол-во часов:</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Осталось</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$11:$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вождение</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$I$11:$I$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-9AFF-4771-ABB5-A044E6A640A7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1863155183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1863155599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1863155599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1863155183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60273E3C-B0C2-4C41-83F5-364A427BF92D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,11 +2283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,139 +2297,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="31">
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -615,8 +2488,21 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>